--- a/data/test/perf_profile_report.xlsx
+++ b/data/test/perf_profile_report.xlsx
@@ -11,6 +11,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>glover</t>
+  </si>
+  <si>
+    <t>ss_linear_formulation</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,234 +383,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.3782169516792027</v>
+        <v>0.4592469447150953</v>
       </c>
       <c r="B2">
-        <v>0.8333485985721212</v>
+        <v>1.37421259003201</v>
       </c>
       <c r="C2">
-        <v>0.3097270891137263</v>
+        <v>0.300186183274457</v>
       </c>
       <c r="D2">
-        <v>3.117839879225642</v>
-      </c>
-      <c r="E2">
-        <v>13.04316562099781</v>
-      </c>
-      <c r="F2">
-        <v>3.599336041070863</v>
-      </c>
-      <c r="G2">
-        <v>0.2962540683177366</v>
-      </c>
-      <c r="H2">
-        <v>0.3133903516321404</v>
-      </c>
-      <c r="I2">
-        <v>41.12180476180701</v>
-      </c>
-      <c r="J2">
-        <v>0.3207776744303601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.3815126640947373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.4766043107981517</v>
+        <v>0.8768343947938169</v>
       </c>
       <c r="B3">
-        <v>0.7072579893785615</v>
+        <v>0.2921932516064034</v>
       </c>
       <c r="C3">
-        <v>0.3285957138367763</v>
+        <v>0.1420902902027175</v>
       </c>
       <c r="D3">
-        <v>2.26594125199172</v>
-      </c>
-      <c r="E3">
-        <v>3.827831399122303</v>
-      </c>
-      <c r="F3">
-        <v>2.05156518704392</v>
-      </c>
-      <c r="G3">
-        <v>0.2938576890218201</v>
-      </c>
-      <c r="H3">
-        <v>0.3066117960290455</v>
-      </c>
-      <c r="I3">
-        <v>6.477803290027424</v>
-      </c>
-      <c r="J3">
-        <v>0.3002181613177726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.2548500032372827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.432443817341408</v>
+        <v>4.492972331491504</v>
       </c>
       <c r="B4">
-        <v>0.5421735120734894</v>
+        <v>0.3162391610224766</v>
       </c>
       <c r="C4">
-        <v>0.3025809834077506</v>
+        <v>0.0631838761178507</v>
       </c>
       <c r="D4">
-        <v>1.669292156141282</v>
-      </c>
-      <c r="E4">
-        <v>11.32001257013457</v>
-      </c>
-      <c r="F4">
-        <v>1.7396043723855</v>
-      </c>
-      <c r="G4">
-        <v>0.3923611165943157</v>
-      </c>
-      <c r="H4">
-        <v>0.3054637447946931</v>
-      </c>
-      <c r="I4">
-        <v>42.39829482018864</v>
-      </c>
-      <c r="J4">
-        <v>0.2967313702236254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.08811609056181879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.5312247827467047</v>
+        <v>0.3413754822367885</v>
       </c>
       <c r="B5">
-        <v>0.9170876451053118</v>
+        <v>0.4899971890905128</v>
       </c>
       <c r="C5">
-        <v>0.3111968947346213</v>
+        <v>0.2607387006965691</v>
       </c>
       <c r="D5">
-        <v>1.186685448174245</v>
-      </c>
-      <c r="E5">
-        <v>3.964918112521644</v>
-      </c>
-      <c r="F5">
-        <v>1.061410871271391</v>
-      </c>
-      <c r="G5">
-        <v>0.2718599535410249</v>
-      </c>
-      <c r="H5">
-        <v>0.2930306025926654</v>
-      </c>
-      <c r="I5">
-        <v>7.418129892443233</v>
-      </c>
-      <c r="J5">
-        <v>0.2942272130779884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.4496768243671116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.5096301285280447</v>
+        <v>0.03742536482604741</v>
       </c>
       <c r="B6">
-        <v>1.045179053355184</v>
+        <v>0.05043450659853121</v>
       </c>
       <c r="C6">
-        <v>0.2838442187645569</v>
+        <v>0.02136962354341954</v>
       </c>
       <c r="D6">
-        <v>2.892168063962401</v>
-      </c>
-      <c r="E6">
-        <v>13.98914246731528</v>
-      </c>
-      <c r="F6">
-        <v>3.218805221343331</v>
-      </c>
-      <c r="G6">
-        <v>0.3108494789552765</v>
-      </c>
-      <c r="H6">
-        <v>0.2996232117957049</v>
-      </c>
-      <c r="I6">
-        <v>62.6700864749458</v>
-      </c>
-      <c r="J6">
-        <v>0.2892642997124426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.01821643055553679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.6957624749899765</v>
+        <v>0.05453993465424745</v>
       </c>
       <c r="B7">
-        <v>0.573329601245689</v>
+        <v>0.06244324884286812</v>
       </c>
       <c r="C7">
-        <v>0.3132138802078543</v>
+        <v>0.01545131678476253</v>
       </c>
       <c r="D7">
-        <v>2.121757781718657</v>
-      </c>
-      <c r="E7">
-        <v>3.784457723447588</v>
-      </c>
-      <c r="F7">
-        <v>1.650216266322616</v>
-      </c>
-      <c r="G7">
-        <v>0.2999394391130181</v>
-      </c>
-      <c r="H7">
-        <v>0.3170074236435312</v>
-      </c>
-      <c r="I7">
-        <v>8.129978112805929</v>
-      </c>
-      <c r="J7">
-        <v>0.3207152975063536</v>
+        <v>0.01610390574294129</v>
       </c>
     </row>
   </sheetData>

--- a/data/test/perf_profile_report.xlsx
+++ b/data/test/perf_profile_report.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>std</t>
+    <t>original</t>
   </si>
   <si>
-    <t>elf</t>
+    <t>tight</t>
   </si>
   <si>
-    <t>glover</t>
-  </si>
-  <si>
-    <t>ss_linear_formulation</t>
+    <t>tighter</t>
   </si>
 </sst>
 </file>
@@ -383,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,92 +396,1589 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4592469447150953</v>
+        <v>9.866983183497155</v>
       </c>
       <c r="B2">
-        <v>1.37421259003201</v>
+        <v>10.07363516921521</v>
       </c>
       <c r="C2">
-        <v>0.300186183274457</v>
-      </c>
-      <c r="D2">
-        <v>0.3815126640947373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9.831943933409775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.8768343947938169</v>
+        <v>9.672842113740785</v>
       </c>
       <c r="B3">
-        <v>0.2921932516064034</v>
+        <v>10.03116437977599</v>
       </c>
       <c r="C3">
-        <v>0.1420902902027175</v>
-      </c>
-      <c r="D3">
-        <v>0.2548500032372827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.750112515337605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>4.492972331491504</v>
+        <v>1.861705621976853</v>
       </c>
       <c r="B4">
-        <v>0.3162391610224766</v>
+        <v>2.174279546527714</v>
       </c>
       <c r="C4">
-        <v>0.0631838761178507</v>
-      </c>
-      <c r="D4">
-        <v>0.08811609056181879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1.928100725309605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.3413754822367885</v>
+        <v>5.324288547754691</v>
       </c>
       <c r="B5">
-        <v>0.4899971890905128</v>
+        <v>5.520864686291361</v>
       </c>
       <c r="C5">
-        <v>0.2607387006965691</v>
-      </c>
-      <c r="D5">
-        <v>0.4496768243671116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5.526972097775342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.03742536482604741</v>
+        <v>5.363064491422847</v>
       </c>
       <c r="B6">
-        <v>0.05043450659853121</v>
+        <v>5.640758661312248</v>
       </c>
       <c r="C6">
-        <v>0.02136962354341954</v>
-      </c>
-      <c r="D6">
-        <v>0.01821643055553679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>5.623509862660285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.05453993465424745</v>
+        <v>30.43590218350823</v>
       </c>
       <c r="B7">
-        <v>0.06244324884286812</v>
+        <v>36.58994239214724</v>
       </c>
       <c r="C7">
-        <v>0.01545131678476253</v>
-      </c>
-      <c r="D7">
-        <v>0.01610390574294129</v>
+        <v>31.25035215326716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>15.1763044278141</v>
+      </c>
+      <c r="B8">
+        <v>14.64812742894946</v>
+      </c>
+      <c r="C8">
+        <v>14.43817617769992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5.340457988746948</v>
+      </c>
+      <c r="B9">
+        <v>4.960655952574598</v>
+      </c>
+      <c r="C9">
+        <v>5.342979911472185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>11.05919570088759</v>
+      </c>
+      <c r="B10">
+        <v>10.75484842407468</v>
+      </c>
+      <c r="C10">
+        <v>11.21618302179081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>12.03013673969235</v>
+      </c>
+      <c r="B11">
+        <v>11.90866873431696</v>
+      </c>
+      <c r="C11">
+        <v>11.86386275813379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2.370688293825197</v>
+      </c>
+      <c r="B12">
+        <v>2.225918559424827</v>
+      </c>
+      <c r="C12">
+        <v>2.203639732995271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>4.941739163391276</v>
+      </c>
+      <c r="B13">
+        <v>5.196568242723515</v>
+      </c>
+      <c r="C13">
+        <v>5.394756311518222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>5.259036363378073</v>
+      </c>
+      <c r="B14">
+        <v>5.547508318239124</v>
+      </c>
+      <c r="C14">
+        <v>5.315377727805981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>31.90775163561784</v>
+      </c>
+      <c r="B15">
+        <v>27.10334869332178</v>
+      </c>
+      <c r="C15">
+        <v>34.63835991327232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>13.88097653838076</v>
+      </c>
+      <c r="B16">
+        <v>13.79315535644082</v>
+      </c>
+      <c r="C16">
+        <v>13.5526607311208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>4.649913067097032</v>
+      </c>
+      <c r="B17">
+        <v>4.510578415689224</v>
+      </c>
+      <c r="C17">
+        <v>4.985257332446963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>357.7491898895692</v>
+      </c>
+      <c r="B18">
+        <v>357.714872316805</v>
+      </c>
+      <c r="C18">
+        <v>358.3716839558656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>5.94805778787736</v>
+      </c>
+      <c r="B19">
+        <v>6.155003103054696</v>
+      </c>
+      <c r="C19">
+        <v>6.36805504013455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>21.67323650960839</v>
+      </c>
+      <c r="B20">
+        <v>21.85199574573562</v>
+      </c>
+      <c r="C20">
+        <v>21.84434707152195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0.5282697746692975</v>
+      </c>
+      <c r="B21">
+        <v>0.3588354938910925</v>
+      </c>
+      <c r="C21">
+        <v>0.283871064529194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>4.947719057492577</v>
+      </c>
+      <c r="B22">
+        <v>4.711849404734949</v>
+      </c>
+      <c r="C22">
+        <v>4.690936159192461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>0.4843429972822832</v>
+      </c>
+      <c r="B23">
+        <v>0.3824455544204284</v>
+      </c>
+      <c r="C23">
+        <v>0.1279200691042206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>32.16697394539551</v>
+      </c>
+      <c r="B24">
+        <v>33.7616281640494</v>
+      </c>
+      <c r="C24">
+        <v>31.74670981465351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1.038746334368625</v>
+      </c>
+      <c r="B25">
+        <v>0.6545771239343594</v>
+      </c>
+      <c r="C25">
+        <v>0.6688176177699461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>391.8648453920823</v>
+      </c>
+      <c r="B26">
+        <v>390.1114805913016</v>
+      </c>
+      <c r="C26">
+        <v>390.1094608422941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>7.457789772395699</v>
+      </c>
+      <c r="B27">
+        <v>6.629029825644466</v>
+      </c>
+      <c r="C27">
+        <v>6.777223184634295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>23.53786397724753</v>
+      </c>
+      <c r="B28">
+        <v>23.09864910532542</v>
+      </c>
+      <c r="C28">
+        <v>22.93685362899487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>0.6248908403831592</v>
+      </c>
+      <c r="B29">
+        <v>0.364687475818755</v>
+      </c>
+      <c r="C29">
+        <v>0.3360639687198272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>4.539075589777894</v>
+      </c>
+      <c r="B30">
+        <v>4.7202568665939</v>
+      </c>
+      <c r="C30">
+        <v>4.650966763363613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>0.4199850137465546</v>
+      </c>
+      <c r="B31">
+        <v>0.5303479526942283</v>
+      </c>
+      <c r="C31">
+        <v>0.7117451800004346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>30.63017708729785</v>
+      </c>
+      <c r="B32">
+        <v>37.90142827364389</v>
+      </c>
+      <c r="C32">
+        <v>32.14873974926013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1.064769750192227</v>
+      </c>
+      <c r="B33">
+        <v>1.400104935356921</v>
+      </c>
+      <c r="C33">
+        <v>1.052757454832317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>3.021606497938592</v>
+      </c>
+      <c r="B34">
+        <v>2.267507386532998</v>
+      </c>
+      <c r="C34">
+        <v>2.420666027632251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>4.07258976355206</v>
+      </c>
+      <c r="B35">
+        <v>3.443637711667179</v>
+      </c>
+      <c r="C35">
+        <v>3.309866845006582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>6.10148528141508</v>
+      </c>
+      <c r="B36">
+        <v>6.111956314044619</v>
+      </c>
+      <c r="C36">
+        <v>6.428311543520977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>0.731751986191739</v>
+      </c>
+      <c r="B37">
+        <v>0.9353557932372496</v>
+      </c>
+      <c r="C37">
+        <v>0.9146265201407004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>0.925908452783915</v>
+      </c>
+      <c r="B38">
+        <v>0.7125173905287738</v>
+      </c>
+      <c r="C38">
+        <v>0.8479803299505875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2.907769795988315</v>
+      </c>
+      <c r="B39">
+        <v>3.146015298927523</v>
+      </c>
+      <c r="C39">
+        <v>2.504384939841657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>0.7907526604940358</v>
+      </c>
+      <c r="B40">
+        <v>0.8218218957217687</v>
+      </c>
+      <c r="C40">
+        <v>0.5329211982052584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1.109757724868359</v>
+      </c>
+      <c r="B41">
+        <v>0.5511648693163806</v>
+      </c>
+      <c r="C41">
+        <v>0.7446308470471195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2.782488902434125</v>
+      </c>
+      <c r="B42">
+        <v>2.705113091731619</v>
+      </c>
+      <c r="C42">
+        <v>1.838155569627816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>3.241825464629073</v>
+      </c>
+      <c r="B43">
+        <v>3.166155544360663</v>
+      </c>
+      <c r="C43">
+        <v>3.688908514371178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>5.968782718276088</v>
+      </c>
+      <c r="B44">
+        <v>6.076675846865328</v>
+      </c>
+      <c r="C44">
+        <v>5.876891244648505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>0.6506671172537608</v>
+      </c>
+      <c r="B45">
+        <v>1.079894575102117</v>
+      </c>
+      <c r="C45">
+        <v>1.089161496224733</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1.413459518955278</v>
+      </c>
+      <c r="B46">
+        <v>1.047858102761893</v>
+      </c>
+      <c r="C46">
+        <v>1.429064409307102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2.763882023918086</v>
+      </c>
+      <c r="B47">
+        <v>2.91009234943067</v>
+      </c>
+      <c r="C47">
+        <v>2.530221224892557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2.923898968332651</v>
+      </c>
+      <c r="B48">
+        <v>1.705174679074844</v>
+      </c>
+      <c r="C48">
+        <v>1.107358187247883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>0.8308890527714539</v>
+      </c>
+      <c r="B49">
+        <v>0.5826419232935223</v>
+      </c>
+      <c r="C49">
+        <v>0.7481350089301486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>0.9048633471611538</v>
+      </c>
+      <c r="B50">
+        <v>1.245847197064904</v>
+      </c>
+      <c r="C50">
+        <v>1.140035010035717</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>0.6178793582921571</v>
+      </c>
+      <c r="B51">
+        <v>1.038634608612483</v>
+      </c>
+      <c r="C51">
+        <v>0.9656844011888097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>0.1473489017716929</v>
+      </c>
+      <c r="B52">
+        <v>0.4088424422061507</v>
+      </c>
+      <c r="C52">
+        <v>0.3600818479999361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>0.3031498767468292</v>
+      </c>
+      <c r="B53">
+        <v>0.4100860327798728</v>
+      </c>
+      <c r="C53">
+        <v>0.2775026964209246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>0.1310491798622024</v>
+      </c>
+      <c r="B54">
+        <v>0.3579740606746782</v>
+      </c>
+      <c r="C54">
+        <v>0.3572737020467684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1.160763888340625</v>
+      </c>
+      <c r="B55">
+        <v>0.9518414615467918</v>
+      </c>
+      <c r="C55">
+        <v>0.9533696961852911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>0.5732585389268934</v>
+      </c>
+      <c r="B56">
+        <v>0.4923809350857482</v>
+      </c>
+      <c r="C56">
+        <v>0.4747555061458115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>0.3976426260205699</v>
+      </c>
+      <c r="B57">
+        <v>0.3868490494223806</v>
+      </c>
+      <c r="C57">
+        <v>0.3818810037782896</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>1.10241067071729</v>
+      </c>
+      <c r="B58">
+        <v>1.254368358633656</v>
+      </c>
+      <c r="C58">
+        <v>1.029419010274978</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>0.8617024636514543</v>
+      </c>
+      <c r="B59">
+        <v>0.9612963030231185</v>
+      </c>
+      <c r="C59">
+        <v>0.7806768133132209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>0.5971374518949233</v>
+      </c>
+      <c r="B60">
+        <v>0.5162827459107575</v>
+      </c>
+      <c r="C60">
+        <v>0.4800010896215099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>0.4360411498200847</v>
+      </c>
+      <c r="B61">
+        <v>0.437663344635439</v>
+      </c>
+      <c r="C61">
+        <v>0.3864759722509916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>0.4196976061475652</v>
+      </c>
+      <c r="B62">
+        <v>0.3638134093016561</v>
+      </c>
+      <c r="C62">
+        <v>0.3567525783782912</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>0.7248257788824048</v>
+      </c>
+      <c r="B63">
+        <v>0.5654997181200088</v>
+      </c>
+      <c r="C63">
+        <v>0.567477619318197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>0.7642381250916515</v>
+      </c>
+      <c r="B64">
+        <v>0.5822131806389734</v>
+      </c>
+      <c r="C64">
+        <v>0.5784745131049931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>0.4324521079452097</v>
+      </c>
+      <c r="B65">
+        <v>0.5266479746442201</v>
+      </c>
+      <c r="C65">
+        <v>0.5268481335087927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>6.237247472155104</v>
+      </c>
+      <c r="B66">
+        <v>7.474732608287013</v>
+      </c>
+      <c r="C66">
+        <v>5.543525275286811</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>4.430921899353962</v>
+      </c>
+      <c r="B67">
+        <v>4.47869314817126</v>
+      </c>
+      <c r="C67">
+        <v>4.01227562072927</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>3.560783154124692</v>
+      </c>
+      <c r="B68">
+        <v>3.524640464147524</v>
+      </c>
+      <c r="C68">
+        <v>3.220881030624696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>0.4255677484452463</v>
+      </c>
+      <c r="B69">
+        <v>0.2974029091328703</v>
+      </c>
+      <c r="C69">
+        <v>0.255373890440751</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>0.9723113571799331</v>
+      </c>
+      <c r="B70">
+        <v>1.279503100685361</v>
+      </c>
+      <c r="C70">
+        <v>0.8706507887127373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>0.3155399867673623</v>
+      </c>
+      <c r="B71">
+        <v>0.291432095217715</v>
+      </c>
+      <c r="C71">
+        <v>0.2278625086255488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1.285313234803652</v>
+      </c>
+      <c r="B72">
+        <v>1.481083605607637</v>
+      </c>
+      <c r="C72">
+        <v>1.200065298374284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>0.5992799807972915</v>
+      </c>
+      <c r="B73">
+        <v>0.5814188618342087</v>
+      </c>
+      <c r="C73">
+        <v>0.9318330761925608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>6.233757127944955</v>
+      </c>
+      <c r="B74">
+        <v>6.634246194613297</v>
+      </c>
+      <c r="C74">
+        <v>6.917157128261351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>5.175272839824174</v>
+      </c>
+      <c r="B75">
+        <v>3.916836163455628</v>
+      </c>
+      <c r="C75">
+        <v>4.04621774757652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>3.731069787934757</v>
+      </c>
+      <c r="B76">
+        <v>3.798011281537583</v>
+      </c>
+      <c r="C76">
+        <v>3.46045224059435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>0.2687880874291295</v>
+      </c>
+      <c r="B77">
+        <v>0.3554245026025455</v>
+      </c>
+      <c r="C77">
+        <v>0.1890905128648228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>2.812645776451063</v>
+      </c>
+      <c r="B78">
+        <v>2.185150896885716</v>
+      </c>
+      <c r="C78">
+        <v>2.688831135402324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>0.3566886222915855</v>
+      </c>
+      <c r="B79">
+        <v>0.3029299783493116</v>
+      </c>
+      <c r="C79">
+        <v>0.306510334829909</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>2.257360082243395</v>
+      </c>
+      <c r="B80">
+        <v>3.867473908285319</v>
+      </c>
+      <c r="C80">
+        <v>2.260619868709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>0.7555353598199872</v>
+      </c>
+      <c r="B81">
+        <v>0.6157399877138232</v>
+      </c>
+      <c r="C81">
+        <v>0.6157103784153151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>1.171450081879811</v>
+      </c>
+      <c r="B82">
+        <v>0.3675986621328775</v>
+      </c>
+      <c r="C82">
+        <v>0.3003776567438763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>4.185817698306892</v>
+      </c>
+      <c r="B83">
+        <v>2.793630289603243</v>
+      </c>
+      <c r="C83">
+        <v>2.95676252710291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>15.15084872095758</v>
+      </c>
+      <c r="B84">
+        <v>15.04054144749261</v>
+      </c>
+      <c r="C84">
+        <v>12.44194208578938</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>0.4742126689898214</v>
+      </c>
+      <c r="B85">
+        <v>0.32592258628938</v>
+      </c>
+      <c r="C85">
+        <v>0.2230890947766966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>2.186275655471036</v>
+      </c>
+      <c r="B86">
+        <v>1.098588307564569</v>
+      </c>
+      <c r="C86">
+        <v>0.4670041863601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>4.473895257301592</v>
+      </c>
+      <c r="B87">
+        <v>2.72311080826239</v>
+      </c>
+      <c r="C87">
+        <v>2.797750324913068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1.419962510679397</v>
+      </c>
+      <c r="B88">
+        <v>0.4145925681450535</v>
+      </c>
+      <c r="C88">
+        <v>0.3778458484603107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>0.3867088987390161</v>
+      </c>
+      <c r="B89">
+        <v>0.346911236847518</v>
+      </c>
+      <c r="C89">
+        <v>0.4200706833189543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>1.721350831508062</v>
+      </c>
+      <c r="B90">
+        <v>0.7100290250091348</v>
+      </c>
+      <c r="C90">
+        <v>0.5046348423284144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>3.547733743705066</v>
+      </c>
+      <c r="B91">
+        <v>2.541778326624808</v>
+      </c>
+      <c r="C91">
+        <v>2.522300539915705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>13.47564812782366</v>
+      </c>
+      <c r="B92">
+        <v>12.99554518221248</v>
+      </c>
+      <c r="C92">
+        <v>11.91971260819264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>0.7276828788762941</v>
+      </c>
+      <c r="B93">
+        <v>0.3352321448028306</v>
+      </c>
+      <c r="C93">
+        <v>0.5868042012043588</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>2.782446659834022</v>
+      </c>
+      <c r="B94">
+        <v>1.719993936015271</v>
+      </c>
+      <c r="C94">
+        <v>1.113246884706314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>4.469354375149123</v>
+      </c>
+      <c r="B95">
+        <v>2.239905992448257</v>
+      </c>
+      <c r="C95">
+        <v>2.171132670190673</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>1.705728175576951</v>
+      </c>
+      <c r="B96">
+        <v>0.5399828187100866</v>
+      </c>
+      <c r="C96">
+        <v>0.3700301777980712</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>1.016835058042489</v>
+      </c>
+      <c r="B97">
+        <v>0.3750673118074701</v>
+      </c>
+      <c r="C97">
+        <v>0.3577119196770582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>0.1523311598793953</v>
+      </c>
+      <c r="B98">
+        <v>0.2854498323713415</v>
+      </c>
+      <c r="C98">
+        <v>0.1548155774926272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>0.5836620623549607</v>
+      </c>
+      <c r="B99">
+        <v>1.004783678406056</v>
+      </c>
+      <c r="C99">
+        <v>0.7247448467978757</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>1.153478421531872</v>
+      </c>
+      <c r="B100">
+        <v>1.666385312524653</v>
+      </c>
+      <c r="C100">
+        <v>0.4965609785758716</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>1.483002682996812</v>
+      </c>
+      <c r="B101">
+        <v>0.9602216828507153</v>
+      </c>
+      <c r="C101">
+        <v>1.303212253670608</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>0.6351415798262678</v>
+      </c>
+      <c r="B102">
+        <v>0.2799176308772076</v>
+      </c>
+      <c r="C102">
+        <v>0.3234594873720198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>0.9143213469624243</v>
+      </c>
+      <c r="B103">
+        <v>1.315768175767516</v>
+      </c>
+      <c r="C103">
+        <v>0.4730460625951309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>0.1102216038916595</v>
+      </c>
+      <c r="B104">
+        <v>0.3228211108771575</v>
+      </c>
+      <c r="C104">
+        <v>0.3341251517967976</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>0.318945450985666</v>
+      </c>
+      <c r="B105">
+        <v>0.3215029048697033</v>
+      </c>
+      <c r="C105">
+        <v>0.08893054368945741</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>0.4356163550710335</v>
+      </c>
+      <c r="B106">
+        <v>0.3556511124406825</v>
+      </c>
+      <c r="C106">
+        <v>0.4055719963926094</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>1.383092616310023</v>
+      </c>
+      <c r="B107">
+        <v>0.5592391278596551</v>
+      </c>
+      <c r="C107">
+        <v>0.5772767182470488</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>2.187555566784795</v>
+      </c>
+      <c r="B108">
+        <v>2.147287709219199</v>
+      </c>
+      <c r="C108">
+        <v>1.505224264781646</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>1.961601476201395</v>
+      </c>
+      <c r="B109">
+        <v>1.676216389497313</v>
+      </c>
+      <c r="C109">
+        <v>1.887675741061685</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>0.2440082621787951</v>
+      </c>
+      <c r="B110">
+        <v>0.3303497687311392</v>
+      </c>
+      <c r="C110">
+        <v>0.2923791980065289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>0.8137582965264301</v>
+      </c>
+      <c r="B111">
+        <v>0.7012469068149585</v>
+      </c>
+      <c r="C111">
+        <v>0.5562095043496811</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>0.3014830705869826</v>
+      </c>
+      <c r="B112">
+        <v>0.2954254027254137</v>
+      </c>
+      <c r="C112">
+        <v>0.2970933932574553</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>0.2088821581473894</v>
+      </c>
+      <c r="B113">
+        <v>0.2973310572333503</v>
+      </c>
+      <c r="C113">
+        <v>0.3171230973057391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>0.2728291646071739</v>
+      </c>
+      <c r="B114">
+        <v>0.3293296296706103</v>
+      </c>
+      <c r="C114">
+        <v>0.08057598377854447</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>3.588300852588873</v>
+      </c>
+      <c r="B115">
+        <v>2.274355425292015</v>
+      </c>
+      <c r="C115">
+        <v>1.050172365601611</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>3.91660481612962</v>
+      </c>
+      <c r="B116">
+        <v>2.677997290156782</v>
+      </c>
+      <c r="C116">
+        <v>2.550821796234231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>3.33895423112881</v>
+      </c>
+      <c r="B117">
+        <v>2.264997307527665</v>
+      </c>
+      <c r="C117">
+        <v>1.119034515759267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>0.1866064900423225</v>
+      </c>
+      <c r="B118">
+        <v>0.2896902788324951</v>
+      </c>
+      <c r="C118">
+        <v>0.2817198502325482</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>1.024880102077077</v>
+      </c>
+      <c r="B119">
+        <v>0.6056886175538239</v>
+      </c>
+      <c r="C119">
+        <v>0.5992748485186894</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>0.3712228403765039</v>
+      </c>
+      <c r="B120">
+        <v>0.2922887909462588</v>
+      </c>
+      <c r="C120">
+        <v>0.2848840973583719</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>0.122156915074811</v>
+      </c>
+      <c r="B121">
+        <v>0.2918509681057913</v>
+      </c>
+      <c r="C121">
+        <v>0.245096700024078</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>0.8137796152223018</v>
+      </c>
+      <c r="B122">
+        <v>0.3244030370460678</v>
+      </c>
+      <c r="C122">
+        <v>0.224788273770173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>3.411338308747872</v>
+      </c>
+      <c r="B123">
+        <v>2.050415161857018</v>
+      </c>
+      <c r="C123">
+        <v>2.095327731516591</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>2.819110078689846</v>
+      </c>
+      <c r="B124">
+        <v>2.989583053689785</v>
+      </c>
+      <c r="C124">
+        <v>2.441097233780965</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>3.718382795339494</v>
+      </c>
+      <c r="B125">
+        <v>2.448143457449987</v>
+      </c>
+      <c r="C125">
+        <v>2.450245717705911</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>0.09590412587931496</v>
+      </c>
+      <c r="B126">
+        <v>0.31865409547936</v>
+      </c>
+      <c r="C126">
+        <v>0.06719692316073633</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>1.680342741457935</v>
+      </c>
+      <c r="B127">
+        <v>1.143027128433459</v>
+      </c>
+      <c r="C127">
+        <v>0.9047235912694305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>0.1235276282404811</v>
+      </c>
+      <c r="B128">
+        <v>0.3323071408158285</v>
+      </c>
+      <c r="C128">
+        <v>0.3001474937900639</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>0.1256346259833663</v>
+      </c>
+      <c r="B129">
+        <v>0.3086125950849237</v>
+      </c>
+      <c r="C129">
+        <v>0.3075348165875766</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>9.780394932782656</v>
+      </c>
+      <c r="B130">
+        <v>9.851488439739114</v>
+      </c>
+      <c r="C130">
+        <v>9.758115316772091</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>11.04941081442121</v>
+      </c>
+      <c r="B131">
+        <v>11.5989057192528</v>
+      </c>
+      <c r="C131">
+        <v>11.46455648427946</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>6.510268899812218</v>
+      </c>
+      <c r="B132">
+        <v>7.792264313924534</v>
+      </c>
+      <c r="C132">
+        <v>8.337026863135179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>40.25650338651394</v>
+      </c>
+      <c r="B133">
+        <v>36.89092289422661</v>
+      </c>
+      <c r="C133">
+        <v>36.49566125066667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>16.92073630036975</v>
+      </c>
+      <c r="B134">
+        <v>15.78086433887438</v>
+      </c>
+      <c r="C134">
+        <v>15.69197524820447</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>10.23624194034892</v>
+      </c>
+      <c r="B135">
+        <v>12.25612083436499</v>
+      </c>
+      <c r="C135">
+        <v>12.00470472027519</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>19.68663925766668</v>
+      </c>
+      <c r="B136">
+        <v>25.12965754279139</v>
+      </c>
+      <c r="C136">
+        <v>25.02250543626724</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>16.91617923180092</v>
+      </c>
+      <c r="B137">
+        <v>14.87691256334438</v>
+      </c>
+      <c r="C137">
+        <v>14.17918639961863</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>10.99946268991334</v>
+      </c>
+      <c r="B138">
+        <v>11.06285619987102</v>
+      </c>
+      <c r="C138">
+        <v>11.06997861813943</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>11.71373453012711</v>
+      </c>
+      <c r="B139">
+        <v>11.86348336431001</v>
+      </c>
+      <c r="C139">
+        <v>11.7357831936024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>8.391857363714735</v>
+      </c>
+      <c r="B140">
+        <v>8.107513339975412</v>
+      </c>
+      <c r="C140">
+        <v>7.972779578902191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>46.53083236083148</v>
+      </c>
+      <c r="B141">
+        <v>34.79581585068809</v>
+      </c>
+      <c r="C141">
+        <v>34.58332570071434</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>18.31613927898616</v>
+      </c>
+      <c r="B142">
+        <v>17.54226944620314</v>
+      </c>
+      <c r="C142">
+        <v>17.43914933667293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>13.08069323660493</v>
+      </c>
+      <c r="B143">
+        <v>13.84993928119547</v>
+      </c>
+      <c r="C143">
+        <v>13.83028383869168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>18.99138803657843</v>
+      </c>
+      <c r="B144">
+        <v>20.15855542939789</v>
+      </c>
+      <c r="C144">
+        <v>20.07812078067582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>16.52339450483123</v>
+      </c>
+      <c r="B145">
+        <v>14.71802077230677</v>
+      </c>
+      <c r="C145">
+        <v>14.61344388524412</v>
       </c>
     </row>
   </sheetData>
